--- a/data/seed for wubi.xlsx
+++ b/data/seed for wubi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BBC5B-57A9-484F-99B9-DD4A206ADC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1304F0A8-6671-4AF7-A96C-2F69954EB62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="38670" windowHeight="21270" activeTab="2" xr2:uid="{F92703FA-278D-40F2-879F-26E709641EDE}"/>
+    <workbookView xWindow="3000" yWindow="780" windowWidth="18900" windowHeight="12360" activeTab="2" xr2:uid="{F92703FA-278D-40F2-879F-26E709641EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT("WOF_HR_",G3)</f>
+        <f t="shared" ref="F3:F49" si="0">_xlfn.CONCAT("WOF_HR_",G3)</f>
         <v>WOF_HR_7</v>
       </c>
       <c r="G3">
@@ -8625,13 +8625,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A23585-8A8F-4248-B7DB-ED0560FC4E3D}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" customWidth="1"/>
